--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="117">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,208 +55,235 @@
     <t>disappointment</t>
   </si>
   <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>loose</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>however</t>
+    <t>inches</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>probably</t>
+    <t>noise</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>missing</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>fell</t>
   </si>
   <si>
     <t>short</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>pay</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>description</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>fl</t>
   </si>
   <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>parts</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
     <t>color</t>
   </si>
   <si>
-    <t>size</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>fit</t>
+    <t>product</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
     <t>need</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>expected</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>put</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>box</t>
   </si>
   <si>
-    <t>5</t>
+    <t>like</t>
   </si>
   <si>
     <t>little</t>
@@ -265,39 +292,36 @@
     <t>buy</t>
   </si>
   <si>
-    <t>like</t>
+    <t>even</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>get</t>
+    <t>toy</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -328,13 +352,13 @@
     <t>friends</t>
   </si>
   <si>
-    <t>learn</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>fun</t>
-  </si>
-  <si>
-    <t>christmas</t>
   </si>
   <si>
     <t>game</t>
@@ -698,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,10 +730,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="J1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -767,13 +791,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -785,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -809,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -838,16 +862,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="K4">
-        <v>0.8518518518518519</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -859,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -888,16 +912,16 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K5">
-        <v>0.8153846153846154</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -909,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -938,16 +962,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="K6">
-        <v>0.6451612903225806</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -959,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -988,16 +1012,16 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="K7">
-        <v>0.625</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1009,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1017,13 +1041,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7688172043010753</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1035,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K8">
-        <v>0.6037735849056604</v>
+        <v>0.484375</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1059,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1067,13 +1091,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7475728155339806</v>
+        <v>0.78125</v>
       </c>
       <c r="C9">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1085,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K9">
-        <v>0.5</v>
+        <v>0.4057971014492754</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1109,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1117,13 +1141,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7391304347826086</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1135,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K10">
-        <v>0.391304347826087</v>
+        <v>0.3434426229508197</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>419</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>419</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1159,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>42</v>
+        <v>801</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1167,13 +1191,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7323943661971831</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1185,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K11">
-        <v>0.3459016393442623</v>
+        <v>0.3142037302725968</v>
       </c>
       <c r="L11">
-        <v>422</v>
+        <v>219</v>
       </c>
       <c r="M11">
-        <v>422</v>
+        <v>219</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1209,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>798</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1217,13 +1241,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7241379310344828</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1235,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K12">
-        <v>0.3089080459770115</v>
+        <v>0.2489626556016598</v>
       </c>
       <c r="L12">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="M12">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1256,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>481</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1267,13 +1291,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.703125</v>
+        <v>0.7087378640776699</v>
       </c>
       <c r="C13">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="D13">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1285,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K13">
-        <v>0.2655601659751037</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L13">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="M13">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1309,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>354</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1317,13 +1341,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.668918918918919</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C14">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1335,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K14">
-        <v>0.2166666666666667</v>
+        <v>0.1987951807228916</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1359,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>94</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1367,7 +1391,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.64</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -1385,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K15">
-        <v>0.1807228915662651</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1409,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>136</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1417,13 +1441,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6041666666666666</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1435,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K16">
-        <v>0.1467889908256881</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="M16">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1459,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>279</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1467,13 +1491,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6</v>
+        <v>0.668918918918919</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1485,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K17">
-        <v>0.1322751322751323</v>
+        <v>0.1124497991967871</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1509,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>164</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1517,13 +1541,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5789473684210527</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1535,19 +1559,19 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>14</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18">
+        <v>0.08602150537634409</v>
+      </c>
+      <c r="L18">
         <v>16</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K18">
-        <v>0.1171875</v>
-      </c>
-      <c r="L18">
-        <v>15</v>
-      </c>
       <c r="M18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1559,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>113</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1567,13 +1591,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5714285714285714</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1585,31 +1609,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K19">
-        <v>0.07975460122699386</v>
+        <v>0.07456140350877193</v>
       </c>
       <c r="L19">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M19">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>1050</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1617,13 +1641,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5630252100840336</v>
+        <v>0.6</v>
       </c>
       <c r="C20">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1635,31 +1659,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K20">
-        <v>0.06425702811244979</v>
+        <v>0.03766233766233766</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>233</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1667,13 +1691,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5526315789473685</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1685,31 +1709,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K21">
-        <v>0.03114860480207658</v>
-      </c>
-      <c r="L21">
         <v>48</v>
-      </c>
-      <c r="M21">
-        <v>48</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>1493</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1717,13 +1717,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5428571428571428</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1743,13 +1743,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5185185185185185</v>
+        <v>0.5625</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1769,13 +1769,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5161290322580645</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1795,13 +1795,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4811594202898551</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C25">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>179</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1821,13 +1821,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4666666666666667</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1847,13 +1847,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.462962962962963</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1873,13 +1873,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4457831325301205</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C28">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="D28">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>46</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1899,13 +1899,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4418604651162791</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1925,13 +1925,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4315789473684211</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C30">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D30">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1951,13 +1951,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4285714285714285</v>
+        <v>0.4724409448818898</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1977,13 +1977,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4285714285714285</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="C32">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2003,13 +2003,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4094488188976378</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C33">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D33">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>75</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2029,13 +2029,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3770491803278688</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2055,13 +2055,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3703703703703703</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2081,13 +2081,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.359375</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C36">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D36">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2107,7 +2107,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3571428571428572</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C37">
         <v>15</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2133,13 +2133,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.34375</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D38">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2159,13 +2159,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3370786516853932</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C39">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2185,13 +2185,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3333333333333333</v>
+        <v>0.359375</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2211,13 +2211,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3267326732673267</v>
+        <v>0.35</v>
       </c>
       <c r="C41">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D41">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>136</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2237,13 +2237,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2263,13 +2263,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.293103448275862</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="C43">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2909090909090909</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C44">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D44">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2315,13 +2315,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2857142857142857</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C45">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D45">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2341,13 +2341,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2835820895522388</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C46">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D46">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2367,13 +2367,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2654028436018958</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C47">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D47">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>155</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2393,13 +2393,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2564102564102564</v>
+        <v>0.3203125</v>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D48">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2419,13 +2419,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2551020408163265</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C49">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D49">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2445,7 +2445,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2463768115942029</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C50">
         <v>17</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2471,13 +2471,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.24</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="C51">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="D51">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>57</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2497,13 +2497,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2371134020618557</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="C52">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D52">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>148</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2523,13 +2523,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.189873417721519</v>
+        <v>0.2654028436018958</v>
       </c>
       <c r="C53">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D53">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>256</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2549,13 +2549,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1864406779661017</v>
+        <v>0.2586206896551724</v>
       </c>
       <c r="C54">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D54">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>96</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2575,13 +2575,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1811594202898551</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C55">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D55">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>226</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2601,25 +2601,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1797919762258544</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="C56">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="D56">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="E56">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>552</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2627,13 +2627,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1714285714285714</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C57">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D57">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>116</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2653,13 +2653,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1648351648351648</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C58">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D58">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2679,13 +2679,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1645569620253164</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C59">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="D59">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>264</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2705,13 +2705,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.155</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C60">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>169</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2731,13 +2731,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.154639175257732</v>
+        <v>0.1978021978021978</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D61">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2757,7 +2757,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1542857142857143</v>
+        <v>0.1928571428571429</v>
       </c>
       <c r="C62">
         <v>27</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2783,13 +2783,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1538461538461539</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C63">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D63">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>110</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2809,13 +2809,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1528662420382166</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C64">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D64">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>133</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2835,13 +2835,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1408045977011494</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C65">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D65">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>299</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2861,13 +2861,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.140625</v>
+        <v>0.185</v>
       </c>
       <c r="C66">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D66">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>110</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2887,25 +2887,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.1355140186915888</v>
+        <v>0.1842496285289748</v>
       </c>
       <c r="C67">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="D67">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>185</v>
+        <v>549</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2913,13 +2913,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.13215859030837</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C68">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D68">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>394</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2939,13 +2939,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.125</v>
+        <v>0.1610169491525424</v>
       </c>
       <c r="C69">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D69">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>168</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2965,13 +2965,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.1123595505617977</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C70">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D70">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>237</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2991,13 +2991,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1092896174863388</v>
+        <v>0.1371428571428571</v>
       </c>
       <c r="C71">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3017,13 +3017,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1008064516129032</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="C72">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D72">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>223</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3043,13 +3043,13 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.09863013698630137</v>
+        <v>0.1337579617834395</v>
       </c>
       <c r="C73">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D73">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3061,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>329</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3069,13 +3069,13 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08900523560209424</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="C74">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D74">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3095,25 +3095,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.0851063829787234</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E75">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>172</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3121,25 +3121,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.06696428571428571</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="C76">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D76">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E76">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>418</v>
+        <v>309</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3147,13 +3147,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06478873239436619</v>
+        <v>0.109375</v>
       </c>
       <c r="C77">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D77">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>332</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3173,13 +3173,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06085526315789474</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="C78">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D78">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>571</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3199,25 +3199,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.04166666666666666</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="C79">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E79">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>414</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3225,25 +3225,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.0397196261682243</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="C80">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D80">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E80">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>411</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3251,25 +3251,25 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.03286978508217446</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="C81">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D81">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E81">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>765</v>
+        <v>330</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3277,25 +3277,259 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.02290076335877863</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="C82">
+        <v>17</v>
+      </c>
+      <c r="D82">
+        <v>18</v>
+      </c>
+      <c r="E82">
+        <v>0.06</v>
+      </c>
+      <c r="F82">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.08376963350785341</v>
+      </c>
+      <c r="C83">
+        <v>16</v>
+      </c>
+      <c r="D83">
+        <v>16</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.06754530477759473</v>
+      </c>
+      <c r="C84">
+        <v>41</v>
+      </c>
+      <c r="D84">
+        <v>42</v>
+      </c>
+      <c r="E84">
+        <v>0.02</v>
+      </c>
+      <c r="F84">
+        <v>0.98</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.0623608017817372</v>
+      </c>
+      <c r="C85">
+        <v>28</v>
+      </c>
+      <c r="D85">
+        <v>28</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.05915492957746479</v>
+      </c>
+      <c r="C86">
+        <v>21</v>
+      </c>
+      <c r="D86">
+        <v>21</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.05357142857142857</v>
+      </c>
+      <c r="C87">
         <v>15</v>
       </c>
-      <c r="D82">
+      <c r="D87">
         <v>15</v>
       </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>640</v>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>0.04746835443037975</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88">
+        <v>16</v>
+      </c>
+      <c r="E88">
+        <v>0.06</v>
+      </c>
+      <c r="F88">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>0.03935185185185185</v>
+      </c>
+      <c r="C89">
+        <v>17</v>
+      </c>
+      <c r="D89">
+        <v>19</v>
+      </c>
+      <c r="E89">
+        <v>0.11</v>
+      </c>
+      <c r="F89">
+        <v>0.89</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>0.03206106870229008</v>
+      </c>
+      <c r="C90">
+        <v>21</v>
+      </c>
+      <c r="D90">
+        <v>21</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="C91">
+        <v>22</v>
+      </c>
+      <c r="D91">
+        <v>24</v>
+      </c>
+      <c r="E91">
+        <v>0.08</v>
+      </c>
+      <c r="F91">
+        <v>0.92</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>770</v>
       </c>
     </row>
   </sheetData>
